--- a/data/trans_dic/P64D$particular_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P64D$particular_2023-Clase-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.6548367981169811</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.6761860439534033</v>
+        <v>0.6761860439534034</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.6648368353654818</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5987036476142233</v>
+        <v>0.5976908573684546</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6295268138655037</v>
+        <v>0.623808445921496</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6264700784462468</v>
+        <v>0.6286121105151975</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7049777957015381</v>
+        <v>0.7088585744988476</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7186686934109158</v>
+        <v>0.7169716041185733</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6981352648628988</v>
+        <v>0.6992544179305097</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.7238539668833308</v>
+        <v>0.7238539668833309</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.6309000845785868</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6810476190730583</v>
+        <v>0.6810476190730581</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6629800767300635</v>
+        <v>0.6637142017605163</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5808031937234862</v>
+        <v>0.5756825956664252</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6382640620664064</v>
+        <v>0.6393913685390396</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7747240437947988</v>
+        <v>0.7742376222244342</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6836492461147861</v>
+        <v>0.6832072026765373</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7179919829529061</v>
+        <v>0.7168740182800907</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.5007873691086627</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6931937993777738</v>
+        <v>0.6931937993777737</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6911046643344809</v>
+        <v>0.6924812996374125</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4043792113896355</v>
+        <v>0.4066716912013605</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6390088741973077</v>
+        <v>0.6397108907621006</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8137258525130969</v>
+        <v>0.8037600915311</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5974290356000473</v>
+        <v>0.6099988388573051</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7409780729591859</v>
+        <v>0.7414601234767867</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.7494731988398783</v>
+        <v>0.7494731988398782</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.5817387528646633</v>
+        <v>0.5817387528646634</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.676505133457683</v>
+        <v>0.6765051334576831</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7081254993149771</v>
+        <v>0.7038437848440511</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.54225876479948</v>
+        <v>0.539357634488257</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6438823616574901</v>
+        <v>0.644758298132751</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7882753241303984</v>
+        <v>0.7857904289981125</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.621342714900958</v>
+        <v>0.6235416265432222</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7068683802319965</v>
+        <v>0.7054387414097478</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7212947154718161</v>
+        <v>0.7201659790223088</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5557693216866787</v>
+        <v>0.5549171781880515</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6551848118392438</v>
+        <v>0.6549108349559819</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8341056246563472</v>
+        <v>0.837205011131962</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.659260328818341</v>
+        <v>0.6569629761859748</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.732536776042522</v>
+        <v>0.7321630281672461</v>
       </c>
     </row>
     <row r="19">
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.7326973386426487</v>
+        <v>0.7326973386426485</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.6127459977478413</v>
+        <v>0.6127459977478412</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.6802308716165534</v>
+        <v>0.6802308716165535</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7088246338797385</v>
+        <v>0.7085117455582725</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.588215165091533</v>
+        <v>0.5892681252556572</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6640370026487</v>
+        <v>0.6649008849704404</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7551391566717335</v>
+        <v>0.7559199641361724</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6360498164482583</v>
+        <v>0.6360349413827039</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6960130702094396</v>
+        <v>0.6980770290735804</v>
       </c>
     </row>
     <row r="22">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>223027</v>
+        <v>222649</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>206631</v>
+        <v>204754</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>438998</v>
+        <v>440499</v>
       </c>
     </row>
     <row r="7">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>262616</v>
+        <v>264061</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>235890</v>
+        <v>235333</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>489217</v>
+        <v>490001</v>
       </c>
     </row>
     <row r="8">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>210562</v>
+        <v>210795</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>157459</v>
+        <v>156070</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>375749</v>
+        <v>376412</v>
       </c>
     </row>
     <row r="11">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>246052</v>
+        <v>245897</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>185341</v>
+        <v>185221</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>422685</v>
+        <v>422027</v>
       </c>
     </row>
     <row r="12">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>185627</v>
+        <v>185997</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>33034</v>
+        <v>33221</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>223836</v>
+        <v>224082</v>
       </c>
     </row>
     <row r="15">
@@ -1183,13 +1183,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>218563</v>
+        <v>215886</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>48805</v>
+        <v>49831</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>259554</v>
+        <v>259723</v>
       </c>
     </row>
     <row r="16">
@@ -1238,13 +1238,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>435990</v>
+        <v>433354</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>257070</v>
+        <v>255695</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>701683</v>
+        <v>702638</v>
       </c>
     </row>
     <row r="19">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>485338</v>
+        <v>483808</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>294562</v>
+        <v>295604</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>770323</v>
+        <v>768765</v>
       </c>
     </row>
     <row r="20">
@@ -1310,13 +1310,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>220837</v>
+        <v>220491</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>170599</v>
+        <v>170337</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>401711</v>
+        <v>401544</v>
       </c>
     </row>
     <row r="23">
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>255376</v>
+        <v>256325</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>202367</v>
+        <v>201661</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>449138</v>
+        <v>448909</v>
       </c>
     </row>
     <row r="24">
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1332996</v>
+        <v>1332408</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>860006</v>
+        <v>861546</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2219633</v>
+        <v>2222520</v>
       </c>
     </row>
     <row r="27">
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1420094</v>
+        <v>1421563</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>929944</v>
+        <v>929922</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2326517</v>
+        <v>2333416</v>
       </c>
     </row>
     <row r="28">
